--- a/STM32F446DEV/Documents/STM32F446DEV-BOM.xlsx
+++ b/STM32F446DEV/Documents/STM32F446DEV-BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Comment</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>0603_SMD_Capacitor</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>SMD 0603 Capacitor</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>0603_SMD_RC</t>
+  </si>
+  <si>
+    <t>C4, C5</t>
   </si>
   <si>
     <t>Header 1x5</t>
@@ -430,7 +445,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -506,16 +521,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="27">
         <v>1</v>
@@ -523,39 +538,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="27">
         <v>1</v>
@@ -563,39 +578,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="27">
         <v>1</v>
@@ -603,41 +618,81 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="27">
         <v>1</v>
       </c>
     </row>
